--- a/va_facility_data_2025-02-20/McKean County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''McKean%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/McKean County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''McKean%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R41708b79a9b24d57aa4bc856a4f8497a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbc0964e1bb6e4529b671f2294e1c8a4c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R841f7ed35a074f98a33c966cdac43f32"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf5243a846eed41a1882cdde9f19d5c1e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8508c064fad14b44a49713be0ca9f35d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3b62b37f51204c4fb692af62e456e9be"/>
   </x:sheets>
 </x:workbook>
 </file>
